--- a/biology/Zoologie/Haploceratoidea/Haploceratoidea.xlsx
+++ b/biology/Zoologie/Haploceratoidea/Haploceratoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplocerataceae
 Les Haploceratoidea sont une super-famille fossile d'ammonites.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Haploceratoidea a été créée est en 1884 par le paléontologue allemand Karl Alfred von Zittel (1839-1904)[1]. Elle est parfois considérée comme une simple famille sous le taxon Haplocerataceae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Haploceratoidea a été créée est en 1884 par le paléontologue allemand Karl Alfred von Zittel (1839-1904). Elle est parfois considérée comme une simple famille sous le taxon Haplocerataceae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles et genres inclus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2022, cette super-famille comprend les familles et genres suivants[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2022, cette super-famille comprend les familles et genres suivants :
 famille † des Binneyitidae Reeside, 1927
 famille † des Haploceratidae Zittel, 1884
 famille † des Hebetoxyitidae Buckman, 1924
